--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Egf-Erbb4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Egf-Erbb4.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.2711976666666667</v>
+        <v>0.1463976666666667</v>
       </c>
       <c r="H2">
-        <v>0.813593</v>
+        <v>0.439193</v>
       </c>
       <c r="I2">
-        <v>0.2043600193410237</v>
+        <v>0.1157910139257259</v>
       </c>
       <c r="J2">
-        <v>0.2043600193410237</v>
+        <v>0.115791013925726</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -567,19 +567,19 @@
         <v>0.9810128591839975</v>
       </c>
       <c r="P2">
-        <v>0.9810128591839975</v>
+        <v>0.9810128591839974</v>
       </c>
       <c r="Q2">
-        <v>0.002793064769</v>
+        <v>0.001507749569</v>
       </c>
       <c r="R2">
-        <v>0.025137582921</v>
+        <v>0.013569746121</v>
       </c>
       <c r="S2">
-        <v>0.2004798068766347</v>
+        <v>0.1135924736390905</v>
       </c>
       <c r="T2">
-        <v>0.2004798068766347</v>
+        <v>0.1135924736390905</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.2711976666666667</v>
+        <v>0.1463976666666667</v>
       </c>
       <c r="H3">
-        <v>0.813593</v>
+        <v>0.439193</v>
       </c>
       <c r="I3">
-        <v>0.2043600193410237</v>
+        <v>0.1157910139257259</v>
       </c>
       <c r="J3">
-        <v>0.2043600193410237</v>
+        <v>0.115791013925726</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -632,16 +632,16 @@
         <v>0.01898714081600254</v>
       </c>
       <c r="Q3">
-        <v>5.405873488888889E-05</v>
+        <v>2.918193488888889E-05</v>
       </c>
       <c r="R3">
-        <v>0.000486528614</v>
+        <v>0.000262637414</v>
       </c>
       <c r="S3">
-        <v>0.003880212464389019</v>
+        <v>0.002198540286635469</v>
       </c>
       <c r="T3">
-        <v>0.003880212464389019</v>
+        <v>0.00219854028663547</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>1.533021</v>
       </c>
       <c r="I4">
-        <v>0.3850674737985645</v>
+        <v>0.4041732358198567</v>
       </c>
       <c r="J4">
-        <v>0.3850674737985645</v>
+        <v>0.4041732358198568</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -691,7 +691,7 @@
         <v>0.9810128591839975</v>
       </c>
       <c r="P4">
-        <v>0.9810128591839975</v>
+        <v>0.9810128591839974</v>
       </c>
       <c r="Q4">
         <v>0.005262861093000002</v>
@@ -700,10 +700,10 @@
         <v>0.04736574983700001</v>
       </c>
       <c r="S4">
-        <v>0.3777561434498888</v>
+        <v>0.3964991416772857</v>
       </c>
       <c r="T4">
-        <v>0.3777561434498888</v>
+        <v>0.3964991416772857</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>1.533021</v>
       </c>
       <c r="I5">
-        <v>0.3850674737985645</v>
+        <v>0.4041732358198567</v>
       </c>
       <c r="J5">
-        <v>0.3850674737985645</v>
+        <v>0.4041732358198568</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -762,10 +762,10 @@
         <v>0.0009167465580000001</v>
       </c>
       <c r="S5">
-        <v>0.007311330348675713</v>
+        <v>0.007674094142571021</v>
       </c>
       <c r="T5">
-        <v>0.007311330348675712</v>
+        <v>0.007674094142571022</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.181472</v>
+        <v>0.1328766666666667</v>
       </c>
       <c r="H6">
-        <v>0.544416</v>
+        <v>0.39863</v>
       </c>
       <c r="I6">
-        <v>0.1367475682430438</v>
+        <v>0.1050967840589721</v>
       </c>
       <c r="J6">
-        <v>0.1367475682430438</v>
+        <v>0.1050967840589721</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -815,19 +815,19 @@
         <v>0.9810128591839975</v>
       </c>
       <c r="P6">
-        <v>0.9810128591839975</v>
+        <v>0.9810128591839974</v>
       </c>
       <c r="Q6">
-        <v>0.001868980128</v>
+        <v>0.00136849679</v>
       </c>
       <c r="R6">
-        <v>0.016820821152</v>
+        <v>0.01231647111</v>
       </c>
       <c r="S6">
-        <v>0.1341511229085672</v>
+        <v>0.1031012966207354</v>
       </c>
       <c r="T6">
-        <v>0.1341511229085672</v>
+        <v>0.1031012966207354</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,22 +844,22 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.181472</v>
+        <v>0.1328766666666667</v>
       </c>
       <c r="H7">
-        <v>0.544416</v>
+        <v>0.39863</v>
       </c>
       <c r="I7">
-        <v>0.1367475682430438</v>
+        <v>0.1050967840589721</v>
       </c>
       <c r="J7">
-        <v>0.1367475682430438</v>
+        <v>0.1050967840589721</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -880,16 +880,16 @@
         <v>0.01898714081600254</v>
       </c>
       <c r="Q7">
-        <v>3.617341866666667E-05</v>
+        <v>2.648674888888889E-05</v>
       </c>
       <c r="R7">
-        <v>0.000325560768</v>
+        <v>0.00023838074</v>
       </c>
       <c r="S7">
-        <v>0.00259644533447659</v>
+        <v>0.001995487438236714</v>
       </c>
       <c r="T7">
-        <v>0.00259644533447659</v>
+        <v>0.001995487438236714</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.276985</v>
+        <v>0.180116</v>
       </c>
       <c r="H8">
-        <v>0.830955</v>
+        <v>0.5403480000000001</v>
       </c>
       <c r="I8">
-        <v>0.2087210434105509</v>
+        <v>0.1424600182442301</v>
       </c>
       <c r="J8">
-        <v>0.2087210434105509</v>
+        <v>0.1424600182442301</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -939,19 +939,19 @@
         <v>0.9810128591839975</v>
       </c>
       <c r="P8">
-        <v>0.9810128591839975</v>
+        <v>0.9810128591839974</v>
       </c>
       <c r="Q8">
-        <v>0.002852668515</v>
+        <v>0.001855014684</v>
       </c>
       <c r="R8">
-        <v>0.025674016635</v>
+        <v>0.016695132156</v>
       </c>
       <c r="S8">
-        <v>0.2047580275680518</v>
+        <v>0.1397551098171766</v>
       </c>
       <c r="T8">
-        <v>0.2047580275680518</v>
+        <v>0.1397551098171766</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.276985</v>
+        <v>0.180116</v>
       </c>
       <c r="H9">
-        <v>0.830955</v>
+        <v>0.5403480000000001</v>
       </c>
       <c r="I9">
-        <v>0.2087210434105509</v>
+        <v>0.1424600182442301</v>
       </c>
       <c r="J9">
-        <v>0.2087210434105509</v>
+        <v>0.1424600182442301</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1004,16 +1004,16 @@
         <v>0.01898714081600254</v>
       </c>
       <c r="Q9">
-        <v>5.521234333333333E-05</v>
+        <v>3.590312266666667E-05</v>
       </c>
       <c r="R9">
-        <v>0.00049691109</v>
+        <v>0.000323128104</v>
       </c>
       <c r="S9">
-        <v>0.003963015842499108</v>
+        <v>0.002704908427053488</v>
       </c>
       <c r="T9">
-        <v>0.003963015842499109</v>
+        <v>0.002704908427053488</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.08639666666666668</v>
+        <v>0.2939293333333333</v>
       </c>
       <c r="H10">
-        <v>0.25919</v>
+        <v>0.881788</v>
       </c>
       <c r="I10">
-        <v>0.06510389520681709</v>
+        <v>0.2324789479512151</v>
       </c>
       <c r="J10">
-        <v>0.06510389520681709</v>
+        <v>0.2324789479512152</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1063,19 +1063,19 @@
         <v>0.9810128591839975</v>
       </c>
       <c r="P10">
-        <v>0.9810128591839975</v>
+        <v>0.9810128591839974</v>
       </c>
       <c r="Q10">
-        <v>0.0008897992700000002</v>
+        <v>0.003027178204</v>
       </c>
       <c r="R10">
-        <v>0.008008193430000003</v>
+        <v>0.027244603836</v>
       </c>
       <c r="S10">
-        <v>0.06386775838085498</v>
+        <v>0.2280648374297093</v>
       </c>
       <c r="T10">
-        <v>0.06386775838085498</v>
+        <v>0.2280648374297093</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.08639666666666668</v>
+        <v>0.2939293333333333</v>
       </c>
       <c r="H11">
-        <v>0.25919</v>
+        <v>0.881788</v>
       </c>
       <c r="I11">
-        <v>0.06510389520681709</v>
+        <v>0.2324789479512151</v>
       </c>
       <c r="J11">
-        <v>0.06510389520681709</v>
+        <v>0.2324789479512152</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1128,16 +1128,16 @@
         <v>0.01898714081600254</v>
       </c>
       <c r="Q11">
-        <v>1.722173555555556E-05</v>
+        <v>5.858991377777778E-05</v>
       </c>
       <c r="R11">
-        <v>0.00015499562</v>
+        <v>0.000527309224</v>
       </c>
       <c r="S11">
-        <v>0.001236136825962109</v>
+        <v>0.004414110521505846</v>
       </c>
       <c r="T11">
-        <v>0.001236136825962109</v>
+        <v>0.004414110521505847</v>
       </c>
     </row>
   </sheetData>
